--- a/Result.xlsx
+++ b/Result.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15100" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BN1_DS1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="BN4_DS1" sheetId="5" r:id="rId7"/>
     <sheet name="BN4_DS2" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="81">
   <si>
     <t>Xb</t>
   </si>
@@ -264,12 +264,18 @@
   <si>
     <t>Parameters in the form of ~ N (mean, variance)</t>
   </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -308,21 +314,263 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -345,11 +593,114 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -372,6 +723,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -703,9 +1066,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -722,7 +1085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -739,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -756,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -773,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -790,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -807,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -827,7 +1190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -844,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -864,7 +1227,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -884,7 +1247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -901,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -918,7 +1281,7 @@
         <v>0.17442333706728499</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -938,7 +1301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -955,7 +1318,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -975,7 +1338,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -995,7 +1358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1012,7 +1375,7 @@
         <v>0.17442333706728499</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1029,7 +1392,7 @@
         <v>0.17442333706728499</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1049,7 +1412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1066,7 +1429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1086,7 +1449,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1106,7 +1469,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1123,7 +1486,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1140,7 +1503,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1160,7 +1523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1177,7 +1540,7 @@
         <v>0.17442333706728499</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1197,7 +1560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1214,7 +1577,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1234,7 +1597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1254,7 +1617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1271,7 +1634,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1288,7 +1651,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1305,7 +1668,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1322,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1339,7 +1702,7 @@
         <v>0.17442333706728499</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1356,7 +1719,7 @@
         <v>0.17442333706728499</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1373,7 +1736,7 @@
         <v>0.17442333706728499</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1390,7 +1753,7 @@
         <v>0.17442333706728499</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1407,7 +1770,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1424,7 +1787,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1441,7 +1804,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1458,7 +1821,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1475,7 +1838,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1492,7 +1855,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1509,7 +1872,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1526,7 +1889,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1543,7 +1906,7 @@
         <v>0.17442333706728499</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1560,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1577,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -1594,7 +1957,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -1611,7 +1974,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -1628,7 +1991,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -1645,7 +2008,7 @@
         <v>0.143540547759236</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -1662,7 +2025,7 @@
         <v>9.1123319685984999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1679,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -1696,7 +2059,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -1713,7 +2076,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -1730,7 +2093,7 @@
         <v>0.16702661934163299</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -1747,7 +2110,7 @@
         <v>9.1123319685984999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -1764,7 +2127,7 @@
         <v>9.1123319685984999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -1781,7 +2144,7 @@
         <v>0.143540547759236</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -1798,7 +2161,7 @@
         <v>0.143540547759236</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -1815,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -1832,7 +2195,7 @@
         <v>0.143540547759236</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1849,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -1866,7 +2229,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -1883,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -1900,7 +2263,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -1917,7 +2280,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -1934,7 +2297,7 @@
         <v>0.17442333706728499</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -1951,7 +2314,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -1968,7 +2331,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -1985,7 +2348,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -2002,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -2019,7 +2382,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -2036,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -2053,7 +2416,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -2070,7 +2433,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -2087,7 +2450,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -2104,7 +2467,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -2121,7 +2484,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -2138,7 +2501,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -2155,7 +2518,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -2172,7 +2535,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -2189,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -2206,7 +2569,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -2223,7 +2586,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -2240,7 +2603,7 @@
         <v>0.16702661934163299</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -2257,7 +2620,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -2274,7 +2637,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -2291,7 +2654,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -2308,7 +2671,7 @@
         <v>0.25104583836664701</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -2344,9 +2707,9 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2363,7 +2726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2380,7 +2743,7 @@
         <v>0.85242030696576199</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2397,7 +2760,7 @@
         <v>8.05473950392325E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2414,7 +2777,7 @@
         <v>8.05473950392325E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2431,7 +2794,7 @@
         <v>8.05473950392325E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2448,7 +2811,7 @@
         <v>8.05473950392325E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2468,7 +2831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2485,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2505,7 +2868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2525,7 +2888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2542,7 +2905,7 @@
         <v>8.05473950392325E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2559,7 +2922,7 @@
         <v>0.70645792563600796</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2579,7 +2942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2596,7 +2959,7 @@
         <v>0.85242030696576199</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -2616,7 +2979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -2636,7 +2999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2653,7 +3016,7 @@
         <v>0.92383621740190103</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -2670,7 +3033,7 @@
         <v>8.05473950392325E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -2690,7 +3053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2707,7 +3070,7 @@
         <v>8.05473950392325E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -2727,7 +3090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2747,7 +3110,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -2764,7 +3127,7 @@
         <v>0.92383621740190103</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -2781,7 +3144,7 @@
         <v>0.92383621740190103</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -2801,7 +3164,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -2818,7 +3181,7 @@
         <v>0.15538232400524701</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -2838,7 +3201,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -2855,7 +3218,7 @@
         <v>8.05473950392325E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2875,7 +3238,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2895,7 +3258,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -2912,7 +3275,7 @@
         <v>0.15538232400524701</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -2929,7 +3292,7 @@
         <v>8.05473950392325E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -2946,7 +3309,7 @@
         <v>8.05473950392325E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -2963,7 +3326,7 @@
         <v>8.05473950392325E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -2980,7 +3343,7 @@
         <v>8.05473950392325E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -2997,7 +3360,7 @@
         <v>8.05473950392325E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -3014,7 +3377,7 @@
         <v>8.05473950392325E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -3031,7 +3394,7 @@
         <v>8.05473950392325E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -3048,7 +3411,7 @@
         <v>8.05473950392325E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -3065,7 +3428,7 @@
         <v>8.05473950392325E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -3082,7 +3445,7 @@
         <v>0.251392757660167</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -3099,7 +3462,7 @@
         <v>8.05473950392325E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -3116,7 +3479,7 @@
         <v>8.05473950392325E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -3133,7 +3496,7 @@
         <v>8.05473950392325E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -3150,7 +3513,7 @@
         <v>8.05473950392325E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -3167,7 +3530,7 @@
         <v>8.05473950392325E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -3184,7 +3547,7 @@
         <v>0.44627588338312602</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -3201,7 +3564,7 @@
         <v>8.05473950392325E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -3218,7 +3581,7 @@
         <v>0.44627588338312602</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -3235,7 +3598,7 @@
         <v>8.05473950392325E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -3252,7 +3615,7 @@
         <v>0.123776143853099</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -3269,7 +3632,7 @@
         <v>0.123776143853099</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -3286,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -3303,7 +3666,7 @@
         <v>0.204997160704145</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -3320,7 +3683,7 @@
         <v>0.204997160704145</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -3337,7 +3700,7 @@
         <v>0.204997160704145</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -3354,7 +3717,7 @@
         <v>0.44627588338312602</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -3371,7 +3734,7 @@
         <v>8.05473950392325E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -3388,7 +3751,7 @@
         <v>6.3027410813012899E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -3405,7 +3768,7 @@
         <v>6.3027410813012899E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -3422,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -3439,7 +3802,7 @@
         <v>8.05473950392325E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -3456,7 +3819,7 @@
         <v>8.05473950392325E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -3473,7 +3836,7 @@
         <v>0.70645792563600796</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -3490,7 +3853,7 @@
         <v>0.251392757660167</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -3507,7 +3870,7 @@
         <v>0.251392757660167</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -3524,7 +3887,7 @@
         <v>8.05473950392325E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -3541,7 +3904,7 @@
         <v>8.05473950392325E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -3558,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -3575,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -3592,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -3609,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -3645,9 +4008,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3667,7 +4030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3687,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3707,7 +4070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3727,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3747,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3767,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3790,7 +4153,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3810,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3833,7 +4196,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3856,7 +4219,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -3876,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -3896,7 +4259,7 @@
         <v>0.16294445909413099</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -3919,7 +4282,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -3939,7 +4302,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -3962,7 +4325,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -3985,7 +4348,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -4005,7 +4368,7 @@
         <v>0.16294445909413099</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -4025,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -4048,7 +4411,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -4068,7 +4431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -4091,7 +4454,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -4114,7 +4477,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -4134,7 +4497,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -4154,7 +4517,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -4177,7 +4540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -4197,7 +4560,7 @@
         <v>0.16294445909413099</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -4220,7 +4583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -4240,7 +4603,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -4263,7 +4626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -4286,7 +4649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -4306,7 +4669,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -4326,7 +4689,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -4346,7 +4709,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -4366,7 +4729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -4386,7 +4749,7 @@
         <v>0.16294445909413099</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -4406,7 +4769,7 @@
         <v>0.16294445909413099</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -4426,7 +4789,7 @@
         <v>0.16294445909413099</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -4446,7 +4809,7 @@
         <v>0.16294445909413099</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -4466,7 +4829,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -4486,7 +4849,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -4506,7 +4869,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -4526,7 +4889,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -4546,7 +4909,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -4566,7 +4929,7 @@
         <v>0.396031061259707</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -4586,7 +4949,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -4606,7 +4969,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -4626,7 +4989,7 @@
         <v>0.16294445909413099</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -4646,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -4666,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -4686,7 +5049,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -4706,7 +5069,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -4726,7 +5089,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -4746,7 +5109,7 @@
         <v>0.145992758887417</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -4766,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -4786,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -4806,7 +5169,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -4826,7 +5189,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -4846,7 +5209,7 @@
         <v>0.227681999728329</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -4866,7 +5229,7 @@
         <v>0.15312569253611999</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -4886,7 +5249,7 @@
         <v>0.15312569253611999</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -4906,7 +5269,7 @@
         <v>0.145992758887417</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -4926,7 +5289,7 @@
         <v>0.145992758887417</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -4946,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -4966,7 +5329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -4986,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -5006,7 +5369,7 @@
         <v>0.396031061259707</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -5026,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -5046,7 +5409,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -5066,7 +5429,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -5086,7 +5449,7 @@
         <v>0.16294445909413099</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -5106,7 +5469,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -5126,7 +5489,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -5146,7 +5509,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -5166,7 +5529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -5186,7 +5549,7 @@
         <v>0.396031061259707</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -5206,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -5226,7 +5589,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -5246,7 +5609,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -5266,7 +5629,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -5286,7 +5649,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -5306,7 +5669,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -5326,7 +5689,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -5346,7 +5709,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -5366,7 +5729,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -5386,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -5406,7 +5769,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -5426,7 +5789,7 @@
         <v>0.396031061259707</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -5446,7 +5809,7 @@
         <v>0.227681999728329</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -5466,7 +5829,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -5486,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -5506,7 +5869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -5526,7 +5889,7 @@
         <v>0.21796995438469299</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -5559,1516 +5922,2372 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="4.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="H1" s="9"/>
+      <c r="I1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="17">
+        <v>1</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="21">
         <v>0.75607452105652195</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="H2" s="21">
+        <f>IF(G2&gt;0.5,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="23">
+        <f>IF(H2=F2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="25">
+        <f>COUNTIF(I2:I74,1)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="17">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0</v>
+      </c>
+      <c r="G3" s="21">
         <v>8.1071773280528003E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="H3" s="21">
+        <f t="shared" ref="H3:H66" si="0">IF(G3&gt;0.5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="23">
+        <f t="shared" ref="I3:I66" si="1">IF(H3=F3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="27">
+        <f>(L2/B73)*100</f>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="11">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="C4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="17">
+        <v>3</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0</v>
+      </c>
+      <c r="H4" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="B5" s="11">
+        <v>4</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="21">
         <v>8.1071773280528003E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="H5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="B6" s="11">
+        <v>5</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="21">
         <v>8.1071773280528003E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="H6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="11">
+        <v>6</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7">
+      <c r="D7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="17">
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="21">
+        <v>0</v>
+      </c>
+      <c r="H7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="33" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="L7" s="34"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="11">
+        <v>7</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="D8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0</v>
+      </c>
+      <c r="H8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="11">
+        <v>8</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
+      <c r="D9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="17">
         <v>2</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0</v>
+      </c>
+      <c r="H9" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="B10" s="11">
+        <v>9</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="21">
         <v>8.1071773280528003E-2</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H10" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="B11" s="11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="21">
         <v>8.1071773280528003E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="H11" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="11">
+        <v>11</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="17">
+        <v>1</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+      <c r="G12" s="21">
         <v>0.60781335687302596</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="H12" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="11">
+        <v>12</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="17">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="21">
         <v>0.75607452105652195</v>
       </c>
-      <c r="I13" t="s">
+      <c r="H13" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="35" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="L13" s="36"/>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="11">
+        <v>13</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
+      <c r="E14" s="17">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+      <c r="G14" s="21">
         <v>0.75607452105652195</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="H14" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="11">
+        <v>14</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="17">
+        <v>1</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="21">
         <v>0.31310444341060201</v>
       </c>
-      <c r="I15" t="s">
+      <c r="H15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="37" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="39"/>
+    </row>
+    <row r="16" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="11">
+        <v>15</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="17">
+        <v>1</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="21">
         <v>0.50632085917492597</v>
       </c>
-      <c r="I16" t="s">
+      <c r="H16" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="40" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="42"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="11">
+        <v>16</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="21">
         <v>0.87459444871426295</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="H17" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18">
+      <c r="B18" s="11">
+        <v>17</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="17">
         <v>2</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="F18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="21">
+        <v>0</v>
+      </c>
+      <c r="H18" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
+      <c r="B19" s="11">
+        <v>18</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="17">
+        <v>1</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0</v>
+      </c>
+      <c r="G19" s="21">
         <v>8.1071773280528003E-2</v>
       </c>
-      <c r="I19" t="s">
+      <c r="H19" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="43" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="L19" s="44"/>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
+      <c r="B20" s="11">
+        <v>19</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="17">
+        <v>1</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+      <c r="G20" s="21">
         <v>8.1071773280528003E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="H20" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
+      <c r="B21" s="11">
+        <v>20</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="17">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
+      <c r="G21" s="21">
         <v>8.1071773280528003E-2</v>
       </c>
-      <c r="I21" t="s">
+      <c r="H21" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="28" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="30"/>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" s="11">
+        <v>21</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
+      <c r="E22" s="17">
+        <v>1</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0</v>
+      </c>
+      <c r="G22" s="21">
         <v>0.31310444341060201</v>
       </c>
-      <c r="I22" t="s">
+      <c r="H22" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="11">
+        <v>22</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
+      <c r="E23" s="17">
+        <v>1</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1</v>
+      </c>
+      <c r="G23" s="21">
         <v>0.87459444871426295</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="H23" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I23" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="11">
+        <v>23</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
+      <c r="E24" s="17">
+        <v>1</v>
+      </c>
+      <c r="F24" s="13">
+        <v>1</v>
+      </c>
+      <c r="G24" s="21">
         <v>0.87459444871426295</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="H24" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I24" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="11">
+        <v>24</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
+      <c r="E25" s="17">
+        <v>1</v>
+      </c>
+      <c r="F25" s="13">
+        <v>1</v>
+      </c>
+      <c r="G25" s="21">
         <v>0.75607452105652195</v>
       </c>
-      <c r="I25" t="s">
+      <c r="H25" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="11">
+        <v>25</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
+      <c r="D26" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="17">
+        <v>1</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0</v>
+      </c>
+      <c r="G26" s="21">
         <v>0.165626906150457</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="H26" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27">
+      <c r="B27" s="11">
+        <v>26</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="17">
         <v>2</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="F27" s="13">
+        <v>0</v>
+      </c>
+      <c r="G27" s="21">
+        <v>0</v>
+      </c>
+      <c r="H27" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
+      <c r="B28" s="11">
+        <v>27</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="17">
+        <v>1</v>
+      </c>
+      <c r="F28" s="13">
+        <v>0</v>
+      </c>
+      <c r="G28" s="21">
         <v>8.1071773280528003E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="H28" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
+      <c r="B29" s="11">
+        <v>28</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0</v>
+      </c>
+      <c r="G29" s="21">
         <v>8.1071773280528003E-2</v>
       </c>
-      <c r="I29" t="s">
+      <c r="H29" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" s="11">
+        <v>29</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
+      <c r="E30" s="17">
+        <v>1</v>
+      </c>
+      <c r="F30" s="13">
+        <v>0</v>
+      </c>
+      <c r="G30" s="21">
         <v>0.75607452105652195</v>
       </c>
-      <c r="I30" t="s">
+      <c r="H30" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I30" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="11">
+        <v>30</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31">
+      <c r="D31" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="17">
         <v>2</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="F31" s="13">
+        <v>0</v>
+      </c>
+      <c r="G31" s="21">
+        <v>0</v>
+      </c>
+      <c r="H31" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
+      <c r="B32" s="11">
+        <v>31</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="17">
+        <v>1</v>
+      </c>
+      <c r="F32" s="13">
+        <v>0</v>
+      </c>
+      <c r="G32" s="21">
         <v>8.1071773280528003E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="H32" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
+      <c r="B33" s="11">
+        <v>32</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="17">
+        <v>1</v>
+      </c>
+      <c r="F33" s="13">
+        <v>0</v>
+      </c>
+      <c r="G33" s="21">
         <v>8.1071773280528003E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="H33" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
+      <c r="B34" s="11">
+        <v>33</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="17">
+        <v>1</v>
+      </c>
+      <c r="F34" s="13">
+        <v>1</v>
+      </c>
+      <c r="G34" s="21">
         <v>8.1071773280528003E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="H34" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
+      <c r="B35" s="11">
+        <v>34</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="17">
+        <v>1</v>
+      </c>
+      <c r="F35" s="13">
+        <v>1</v>
+      </c>
+      <c r="G35" s="21">
         <v>8.1071773280528003E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="H35" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
+      <c r="B36" s="11">
+        <v>35</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="17">
+        <v>1</v>
+      </c>
+      <c r="F36" s="13">
+        <v>1</v>
+      </c>
+      <c r="G36" s="21">
         <v>8.1071773280528003E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="H36" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
+      <c r="B37" s="11">
+        <v>36</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="17">
+        <v>1</v>
+      </c>
+      <c r="F37" s="13">
+        <v>0</v>
+      </c>
+      <c r="G37" s="21">
         <v>8.1071773280528003E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="H37" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38">
+      <c r="B38" s="11">
+        <v>37</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="17">
         <v>2</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="F38" s="13">
+        <v>0</v>
+      </c>
+      <c r="G38" s="21">
+        <v>0</v>
+      </c>
+      <c r="H38" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
-      <c r="B39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39">
+      <c r="B39" s="11">
+        <v>38</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="17">
         <v>3</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="F39" s="13">
+        <v>0</v>
+      </c>
+      <c r="G39" s="21">
+        <v>0</v>
+      </c>
+      <c r="H39" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
-      <c r="B40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
+      <c r="B40" s="11">
+        <v>39</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="17">
+        <v>1</v>
+      </c>
+      <c r="F40" s="13">
+        <v>0</v>
+      </c>
+      <c r="G40" s="21">
         <v>8.1071773280528003E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="H40" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
-      <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
+      <c r="B41" s="11">
+        <v>40</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="17">
+        <v>1</v>
+      </c>
+      <c r="F41" s="13">
+        <v>0</v>
+      </c>
+      <c r="G41" s="21">
         <v>0.23074705426863601</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="H41" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="B42" s="11">
+        <v>41</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="17">
+        <v>1</v>
+      </c>
+      <c r="F42" s="13">
+        <v>0</v>
+      </c>
+      <c r="G42" s="21">
         <v>8.1071773280528003E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="H42" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
-      <c r="B43" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
+      <c r="B43" s="11">
+        <v>42</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="17">
+        <v>1</v>
+      </c>
+      <c r="F43" s="13">
+        <v>0</v>
+      </c>
+      <c r="G43" s="21">
         <v>8.1071773280528003E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="H43" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44">
+      <c r="B44" s="11">
+        <v>43</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="17">
         <v>2</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="F44" s="13">
+        <v>0</v>
+      </c>
+      <c r="G44" s="21">
+        <v>0</v>
+      </c>
+      <c r="H44" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
-      <c r="B45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
+      <c r="B45" s="11">
+        <v>44</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="17">
+        <v>1</v>
+      </c>
+      <c r="F45" s="13">
+        <v>0</v>
+      </c>
+      <c r="G45" s="21">
         <v>8.1071773280528003E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="H45" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
+      <c r="B46" s="11">
+        <v>45</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="17">
+        <v>1</v>
+      </c>
+      <c r="F46" s="13">
+        <v>0</v>
+      </c>
+      <c r="G46" s="21">
         <v>8.1071773280528003E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="H46" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
-      <c r="B47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
+      <c r="B47" s="11">
+        <v>46</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="17">
+        <v>1</v>
+      </c>
+      <c r="F47" s="13">
+        <v>0</v>
+      </c>
+      <c r="G47" s="21">
         <v>0.37497071956147099</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="H47" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
-      <c r="B48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
+      <c r="B48" s="11">
+        <v>47</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="17">
+        <v>1</v>
+      </c>
+      <c r="F48" s="13">
+        <v>0</v>
+      </c>
+      <c r="G48" s="21">
         <v>8.1071773280528003E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="H48" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
-      <c r="B49" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
+      <c r="B49" s="11">
+        <v>48</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="17">
+        <v>1</v>
+      </c>
+      <c r="F49" s="13">
+        <v>1</v>
+      </c>
+      <c r="G49" s="21">
         <v>0.37497071956147099</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="H49" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
-      <c r="B50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
+      <c r="B50" s="11">
+        <v>49</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="17">
+        <v>1</v>
+      </c>
+      <c r="F50" s="13">
+        <v>1</v>
+      </c>
+      <c r="G50" s="21">
         <v>8.1071773280528003E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="H50" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="11">
+        <v>50</v>
+      </c>
+      <c r="C51" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
+      <c r="E51" s="17">
+        <v>1</v>
+      </c>
+      <c r="F51" s="13">
+        <v>0</v>
+      </c>
+      <c r="G51" s="21">
         <v>0.111572737608123</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="H51" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="11">
+        <v>51</v>
+      </c>
+      <c r="C52" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
+      <c r="E52" s="17">
+        <v>1</v>
+      </c>
+      <c r="F52" s="13">
+        <v>1</v>
+      </c>
+      <c r="G52" s="21">
         <v>0.111572737608123</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="H52" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="11">
+        <v>52</v>
+      </c>
+      <c r="C53" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D53">
+      <c r="E53" s="17">
         <v>2</v>
       </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="F53" s="13">
+        <v>0</v>
+      </c>
+      <c r="G53" s="21">
+        <v>0</v>
+      </c>
+      <c r="H53" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
-      <c r="B54" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B54" s="11">
+        <v>53</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
+      <c r="E54" s="17">
+        <v>1</v>
+      </c>
+      <c r="F54" s="13">
+        <v>0</v>
+      </c>
+      <c r="G54" s="21">
         <v>0.15950297626292201</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="H54" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
-      <c r="B55" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B55" s="11">
+        <v>54</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
+      <c r="E55" s="17">
+        <v>1</v>
+      </c>
+      <c r="F55" s="13">
+        <v>0</v>
+      </c>
+      <c r="G55" s="21">
         <v>0.15950297626292201</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="H55" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
-      <c r="B56" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B56" s="11">
+        <v>55</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
+      <c r="E56" s="17">
+        <v>1</v>
+      </c>
+      <c r="F56" s="13">
+        <v>0</v>
+      </c>
+      <c r="G56" s="21">
         <v>0.15950297626292201</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="H56" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
-      <c r="B57" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
+      <c r="B57" s="11">
+        <v>56</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="17">
+        <v>1</v>
+      </c>
+      <c r="F57" s="13">
+        <v>0</v>
+      </c>
+      <c r="G57" s="21">
         <v>0.37497071956147099</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="H57" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
-      <c r="B58" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
+      <c r="B58" s="11">
+        <v>57</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="17">
+        <v>1</v>
+      </c>
+      <c r="F58" s="13">
+        <v>0</v>
+      </c>
+      <c r="G58" s="21">
         <v>8.1071773280528003E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="H58" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
-      <c r="B59" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B59" s="11">
+        <v>58</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
+      <c r="E59" s="17">
+        <v>1</v>
+      </c>
+      <c r="F59" s="13">
+        <v>0</v>
+      </c>
+      <c r="G59" s="21">
         <v>5.2864693715056699E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="H59" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
-      <c r="B60" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B60" s="11">
+        <v>59</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
+      <c r="E60" s="17">
+        <v>1</v>
+      </c>
+      <c r="F60" s="13">
+        <v>0</v>
+      </c>
+      <c r="G60" s="21">
         <v>5.2864693715056699E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="H60" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="11">
+        <v>60</v>
+      </c>
+      <c r="C61" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C61" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61">
+      <c r="D61" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="17">
         <v>2</v>
       </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="F61" s="13">
+        <v>0</v>
+      </c>
+      <c r="G61" s="21">
+        <v>0</v>
+      </c>
+      <c r="H61" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
-      <c r="B62" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
+      <c r="B62" s="11">
+        <v>61</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="17">
+        <v>1</v>
+      </c>
+      <c r="F62" s="13">
+        <v>0</v>
+      </c>
+      <c r="G62" s="21">
         <v>8.1071773280528003E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="H62" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
-      <c r="B63" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
+      <c r="B63" s="11">
+        <v>62</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="17">
+        <v>1</v>
+      </c>
+      <c r="F63" s="13">
+        <v>1</v>
+      </c>
+      <c r="G63" s="21">
         <v>8.1071773280528003E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="H63" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
-      <c r="B64" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B64" s="11">
+        <v>63</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64">
+      <c r="E64" s="17">
+        <v>1</v>
+      </c>
+      <c r="F64" s="13">
+        <v>1</v>
+      </c>
+      <c r="G64" s="21">
         <v>0.60781335687302596</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="H64" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I64" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>5</v>
       </c>
-      <c r="B65" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
+      <c r="B65" s="11">
+        <v>64</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="17">
+        <v>1</v>
+      </c>
+      <c r="F65" s="13">
+        <v>1</v>
+      </c>
+      <c r="G65" s="21">
         <v>0.23074705426863601</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="H65" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5</v>
       </c>
-      <c r="B66" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
+      <c r="B66" s="11">
+        <v>65</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="17">
+        <v>1</v>
+      </c>
+      <c r="F66" s="13">
+        <v>0</v>
+      </c>
+      <c r="G66" s="21">
         <v>0.23074705426863601</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="H66" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>6</v>
       </c>
-      <c r="B67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
+      <c r="B67" s="11">
+        <v>66</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="17">
+        <v>1</v>
+      </c>
+      <c r="F67" s="13">
+        <v>0</v>
+      </c>
+      <c r="G67" s="21">
         <v>8.1071773280528003E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="H67" s="21">
+        <f t="shared" ref="H67:H73" si="2">IF(G67&gt;0.5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="23">
+        <f t="shared" ref="I67:I73" si="3">IF(H67=F67,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>6</v>
       </c>
-      <c r="B68" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
+      <c r="B68" s="11">
+        <v>67</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="17">
+        <v>1</v>
+      </c>
+      <c r="F68" s="13">
+        <v>0</v>
+      </c>
+      <c r="G68" s="21">
         <v>8.1071773280528003E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="H68" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="11">
+        <v>68</v>
+      </c>
+      <c r="C69" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C69" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="D69" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="17">
+        <v>1</v>
+      </c>
+      <c r="F69" s="13">
+        <v>0</v>
+      </c>
+      <c r="G69" s="21">
+        <v>0</v>
+      </c>
+      <c r="H69" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>6</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="11">
+        <v>69</v>
+      </c>
+      <c r="C70" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70">
+      <c r="D70" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="17">
         <v>2</v>
       </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="F70" s="13">
+        <v>0</v>
+      </c>
+      <c r="G70" s="21">
+        <v>0</v>
+      </c>
+      <c r="H70" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="11">
+        <v>70</v>
+      </c>
+      <c r="C71" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C71" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="D71" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="17">
+        <v>1</v>
+      </c>
+      <c r="F71" s="13">
+        <v>0</v>
+      </c>
+      <c r="G71" s="21">
+        <v>0</v>
+      </c>
+      <c r="H71" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>6</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="11">
+        <v>71</v>
+      </c>
+      <c r="C72" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C72" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72">
+      <c r="D72" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="17">
         <v>3</v>
       </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="F72" s="13">
+        <v>0</v>
+      </c>
+      <c r="G72" s="21">
+        <v>0</v>
+      </c>
+      <c r="H72" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>6</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="12">
+        <v>72</v>
+      </c>
+      <c r="C73" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
+      <c r="E73" s="18">
+        <v>1</v>
+      </c>
+      <c r="F73" s="14">
+        <v>0</v>
+      </c>
+      <c r="G73" s="22">
+        <v>0</v>
+      </c>
+      <c r="H73" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I73" s="24">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K19:L19"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7085,9 +8304,9 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7104,7 +8323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32</v>
       </c>
@@ -7121,7 +8340,7 @@
         <v>5.2694664631352199E-49</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>22</v>
       </c>
@@ -7138,7 +8357,7 @@
         <v>4.4285364329534801E-12</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -7158,7 +8377,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -7175,7 +8394,7 @@
         <v>1.04090205379557E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -7192,7 +8411,7 @@
         <v>1.90088928553712E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -7212,7 +8431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -7229,7 +8448,7 @@
         <v>9.4481496842131696E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -7249,7 +8468,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -7269,7 +8488,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -7286,7 +8505,7 @@
         <v>0.299992353687557</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -7303,7 +8522,7 @@
         <v>0.34833881968615199</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
@@ -7323,7 +8542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -7340,7 +8559,7 @@
         <v>0.36667176208138202</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
@@ -7360,7 +8579,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -7380,7 +8599,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -7397,7 +8616,7 @@
         <v>0.32232832371209702</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -7414,7 +8633,7 @@
         <v>0.22275321459217401</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -7434,7 +8653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7</v>
       </c>
@@ -7451,7 +8670,7 @@
         <v>0.53816834967187699</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7.5</v>
       </c>
@@ -7471,7 +8690,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>9</v>
       </c>
@@ -7491,7 +8710,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10</v>
       </c>
@@ -7508,7 +8727,7 @@
         <v>0.49991780732439001</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>9</v>
       </c>
@@ -7525,7 +8744,7 @@
         <v>0.52813550817744903</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9</v>
       </c>
@@ -7545,7 +8764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6</v>
       </c>
@@ -7562,7 +8781,7 @@
         <v>0.51826805951031196</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>9</v>
       </c>
@@ -7582,7 +8801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>13</v>
       </c>
@@ -7599,7 +8818,7 @@
         <v>0.30942889363114801</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>12</v>
       </c>
@@ -7619,7 +8838,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>9</v>
       </c>
@@ -7639,7 +8858,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10.5</v>
       </c>
@@ -7656,7 +8875,7 @@
         <v>0.47575034012576201</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>14</v>
       </c>
@@ -7673,7 +8892,7 @@
         <v>0.220946515676226</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>11</v>
       </c>
@@ -7690,7 +8909,7 @@
         <v>0.20823711614384</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -7707,7 +8926,7 @@
         <v>0.217153620182746</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
@@ -7724,7 +8943,7 @@
         <v>0.40769817779730899</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6</v>
       </c>
@@ -7741,7 +8960,7 @@
         <v>0.48572045505349798</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -7758,7 +8977,7 @@
         <v>0.12275739280511599</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>6</v>
       </c>
@@ -7775,7 +8994,7 @@
         <v>0.53523231095694002</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9</v>
       </c>
@@ -7792,7 +9011,7 @@
         <v>0.63867170123889905</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>11.5</v>
       </c>
@@ -7809,7 +9028,7 @@
         <v>0.519795812283117</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10</v>
       </c>
@@ -7826,7 +9045,7 @@
         <v>0.608109584303555</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>9</v>
       </c>
@@ -7843,7 +9062,7 @@
         <v>0.63468357438956502</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9</v>
       </c>
@@ -7860,7 +9079,7 @@
         <v>0.63713594961001596</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>9</v>
       </c>
@@ -7877,7 +9096,7 @@
         <v>0.57382210429687797</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10</v>
       </c>
@@ -7894,7 +9113,7 @@
         <v>0.61221056335852497</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
@@ -7911,7 +9130,7 @@
         <v>0.63713594961001596</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6</v>
       </c>
@@ -7928,7 +9147,7 @@
         <v>0.56151531582517</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>18</v>
       </c>
@@ -7945,7 +9164,7 @@
         <v>2.2393266028133601E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>16</v>
       </c>
@@ -7962,7 +9181,7 @@
         <v>5.9228339441607603E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>13</v>
       </c>
@@ -7979,7 +9198,7 @@
         <v>9.4636725184837803E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10</v>
       </c>
@@ -7996,7 +9215,7 @@
         <v>0.32367950792420602</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>11</v>
       </c>
@@ -8013,7 +9232,7 @@
         <v>0.26277133329577601</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>12</v>
       </c>
@@ -8030,7 +9249,7 @@
         <v>7.9761532897844004E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>14</v>
       </c>
@@ -8047,7 +9266,7 @@
         <v>1.68094485002867E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>15</v>
       </c>
@@ -8064,7 +9283,7 @@
         <v>4.4591334302535597E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>12.5</v>
       </c>
@@ -8081,7 +9300,7 @@
         <v>0.27339508697776399</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>13</v>
       </c>
@@ -8098,7 +9317,7 @@
         <v>4.4506299835488698E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>13</v>
       </c>
@@ -8115,7 +9334,7 @@
         <v>4.1625202306789701E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>13</v>
       </c>
@@ -8132,7 +9351,7 @@
         <v>2.8877613407601401E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>13</v>
       </c>
@@ -8149,7 +9368,7 @@
         <v>1.9992161113581001E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>12</v>
       </c>
@@ -8166,7 +9385,7 @@
         <v>3.7763883937559301E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10</v>
       </c>
@@ -8183,7 +9402,7 @@
         <v>4.6482555384087097E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>16.5</v>
       </c>
@@ -8200,7 +9419,7 @@
         <v>3.74052110629304E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>12</v>
       </c>
@@ -8217,7 +9436,7 @@
         <v>8.9521280146202697E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>15</v>
       </c>
@@ -8234,7 +9453,7 @@
         <v>4.0434109856292602E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>13</v>
       </c>
@@ -8251,7 +9470,7 @@
         <v>0.146661231764255</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>15</v>
       </c>
@@ -8268,7 +9487,7 @@
         <v>3.0981554779224998E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>12</v>
       </c>
@@ -8285,7 +9504,7 @@
         <v>0.158971681980939</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>9</v>
       </c>
@@ -8302,7 +9521,7 @@
         <v>0.325178407251145</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4</v>
       </c>
@@ -8319,7 +9538,7 @@
         <v>0.15855499021429301</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>14.5</v>
       </c>
@@ -8336,7 +9555,7 @@
         <v>6.6110597697663698E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>10</v>
       </c>
@@ -8353,7 +9572,7 @@
         <v>0.43605941718921598</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>11</v>
       </c>
@@ -8370,7 +9589,7 @@
         <v>0.36206640153012198</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>15.5</v>
       </c>
@@ -8387,7 +9606,7 @@
         <v>7.0973875424260096E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>13</v>
       </c>
@@ -8404,7 +9623,7 @@
         <v>4.4506299835488698E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>15</v>
       </c>
@@ -8421,7 +9640,7 @@
         <v>0.12749114872779799</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>13</v>
       </c>
@@ -8438,7 +9657,7 @@
         <v>0.243422418213328</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>12</v>
       </c>
@@ -8455,7 +9674,7 @@
         <v>0.31574784229641001</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>10</v>
       </c>
@@ -8472,7 +9691,7 @@
         <v>0.44388885517159898</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>14</v>
       </c>
@@ -8489,7 +9708,7 @@
         <v>7.0504226702292505E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>8.5</v>
       </c>
@@ -8506,7 +9725,7 @@
         <v>0.43126645685096698</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>9</v>
       </c>
@@ -8523,7 +9742,7 @@
         <v>0.59016751067865403</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>10</v>
       </c>
@@ -8540,7 +9759,7 @@
         <v>0.54157910278830801</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>14</v>
       </c>
@@ -8557,7 +9776,7 @@
         <v>8.2524518481765702E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>15</v>
       </c>
@@ -8574,7 +9793,7 @@
         <v>5.5380969442152199E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>14.5</v>
       </c>
@@ -8591,7 +9810,7 @@
         <v>4.9009264398314899E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>10</v>
       </c>
@@ -8608,7 +9827,7 @@
         <v>0.18343924934419201</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>12</v>
       </c>
@@ -8625,7 +9844,7 @@
         <v>1.3349432643708499E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>13</v>
       </c>
@@ -8642,7 +9861,7 @@
         <v>0.179289903186718</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>14</v>
       </c>
@@ -8659,7 +9878,7 @@
         <v>0.204464497781291</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>10</v>
       </c>
@@ -8676,7 +9895,7 @@
         <v>0.54157910278830801</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>13</v>
       </c>
@@ -8693,7 +9912,7 @@
         <v>0.15870457883856701</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>16</v>
       </c>
@@ -8729,9 +9948,9 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8748,7 +9967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11.5</v>
       </c>
@@ -8765,7 +9984,7 @@
         <v>0.90841803162903001</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>17.5</v>
       </c>
@@ -8782,7 +10001,7 @@
         <v>0.21312490930514499</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13.5</v>
       </c>
@@ -8802,7 +10021,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15</v>
       </c>
@@ -8819,7 +10038,7 @@
         <v>0.13426671890235001</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>17</v>
       </c>
@@ -8836,7 +10055,7 @@
         <v>4.82209287373217E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16</v>
       </c>
@@ -8856,7 +10075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>13.5</v>
       </c>
@@ -8873,7 +10092,7 @@
         <v>1.11759801786101E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>17</v>
       </c>
@@ -8893,7 +10112,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>16</v>
       </c>
@@ -8913,7 +10132,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>16.5</v>
       </c>
@@ -8930,7 +10149,7 @@
         <v>9.2238635483166895E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>23</v>
       </c>
@@ -8947,7 +10166,7 @@
         <v>0.82213709592527495</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -8967,7 +10186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8984,7 +10203,7 @@
         <v>0.81575356357548301</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -9004,7 +10223,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -9024,7 +10243,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
@@ -9041,7 +10260,7 @@
         <v>0.71296883092312302</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -9058,7 +10277,7 @@
         <v>9.3169944057851395E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9078,7 +10297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -9095,7 +10314,7 @@
         <v>0.15150391856463899</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13</v>
       </c>
@@ -9115,7 +10334,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
@@ -9135,7 +10354,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7</v>
       </c>
@@ -9152,7 +10371,7 @@
         <v>0.99859031721777602</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -9169,7 +10388,7 @@
         <v>0.95571800172378796</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>12</v>
       </c>
@@ -9189,7 +10408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>15.5</v>
       </c>
@@ -9206,7 +10425,7 @@
         <v>0.187431402978741</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>17.5</v>
       </c>
@@ -9226,7 +10445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>17</v>
       </c>
@@ -9243,7 +10462,7 @@
         <v>3.65639264764809E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>14</v>
       </c>
@@ -9263,7 +10482,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>11</v>
       </c>
@@ -9283,7 +10502,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>15</v>
       </c>
@@ -9300,7 +10519,7 @@
         <v>0.119655484214602</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>16</v>
       </c>
@@ -9317,7 +10536,7 @@
         <v>0.102056784511003</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>13</v>
       </c>
@@ -9334,7 +10553,7 @@
         <v>0.2105674484451</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>14</v>
       </c>
@@ -9351,7 +10570,7 @@
         <v>0.13105759176753801</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>14.5</v>
       </c>
@@ -9368,7 +10587,7 @@
         <v>5.1572599361359002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>14</v>
       </c>
@@ -9385,7 +10604,7 @@
         <v>0.19636845341997999</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>13.5</v>
       </c>
@@ -9402,7 +10621,7 @@
         <v>0.19299675644400799</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>16</v>
       </c>
@@ -9419,7 +10638,7 @@
         <v>0.13830153717798899</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>16</v>
       </c>
@@ -9436,7 +10655,7 @@
         <v>0.14057096434577299</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>13</v>
       </c>
@@ -9453,7 +10672,7 @@
         <v>0.24243793683161499</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>19</v>
       </c>
@@ -9470,7 +10689,7 @@
         <v>0.11728875393207799</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>15.5</v>
       </c>
@@ -9487,7 +10706,7 @@
         <v>0.114350329371833</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>14</v>
       </c>
@@ -9504,7 +10723,7 @@
         <v>0.15881332150956201</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>17</v>
       </c>
@@ -9521,7 +10740,7 @@
         <v>0.14030696317487301</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>14</v>
       </c>
@@ -9538,7 +10757,7 @@
         <v>0.18614500217826599</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>15</v>
       </c>
@@ -9555,7 +10774,7 @@
         <v>0.15893248476174801</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>12</v>
       </c>
@@ -9572,7 +10791,7 @@
         <v>0.30960200342107103</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>15</v>
       </c>
@@ -9589,7 +10808,7 @@
         <v>0.11535862763306901</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>11</v>
       </c>
@@ -9606,7 +10825,7 @@
         <v>0.41945119433054501</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>16</v>
       </c>
@@ -9623,7 +10842,7 @@
         <v>8.2013548143241993E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>17</v>
       </c>
@@ -9640,7 +10859,7 @@
         <v>0.13990415400178799</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>18</v>
       </c>
@@ -9657,7 +10876,7 @@
         <v>0.18043725727455101</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>18</v>
       </c>
@@ -9674,7 +10893,7 @@
         <v>1.45773816570926E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>24</v>
       </c>
@@ -9691,7 +10910,7 @@
         <v>0.50481161507849004</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>22.5</v>
       </c>
@@ -9708,7 +10927,7 @@
         <v>4.4385339122416302E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>19</v>
       </c>
@@ -9725,7 +10944,7 @@
         <v>0.18852356258938899</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>12</v>
       </c>
@@ -9742,7 +10961,7 @@
         <v>0.30960200342107103</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>15</v>
       </c>
@@ -9759,7 +10978,7 @@
         <v>0.12221850641915701</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>15</v>
       </c>
@@ -9776,7 +10995,7 @@
         <v>0.19562273221259299</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>16</v>
       </c>
@@ -9793,7 +11012,7 @@
         <v>0.14646022016166901</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>22</v>
       </c>
@@ -9810,7 +11029,7 @@
         <v>5.4480047775599094E-20</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>17</v>
       </c>
@@ -9827,7 +11046,7 @@
         <v>6.9967350006302401E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>17</v>
       </c>
@@ -9844,7 +11063,7 @@
         <v>4.8343249179130798E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>19</v>
       </c>
@@ -9861,7 +11080,7 @@
         <v>0.39820839635487199</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>21</v>
       </c>
@@ -9878,7 +11097,7 @@
         <v>0.26420091528353701</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>20</v>
       </c>
@@ -9895,7 +11114,7 @@
         <v>0.18267669349848201</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>18</v>
       </c>
@@ -9912,7 +11131,7 @@
         <v>4.0230096748423899E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>17.5</v>
       </c>
@@ -9929,7 +11148,7 @@
         <v>4.1293546680223302E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>18.5</v>
       </c>
@@ -9946,7 +11165,7 @@
         <v>5.8680074400064902E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>16</v>
       </c>
@@ -9963,7 +11182,7 @@
         <v>2.20542886146661E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>14</v>
       </c>
@@ -9980,7 +11199,7 @@
         <v>9.2782178328150099E-6</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>17</v>
       </c>
@@ -9997,7 +11216,7 @@
         <v>3.8638678201536602E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>17</v>
       </c>
@@ -10032,9 +11251,9 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10054,7 +11273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32</v>
       </c>
@@ -10074,7 +11293,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>22</v>
       </c>
@@ -10094,7 +11313,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -10117,7 +11336,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -10137,7 +11356,7 @@
         <v>2.0167043687189402E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -10157,7 +11376,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -10180,7 +11399,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -10200,7 +11419,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -10223,7 +11442,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -10246,7 +11465,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -10266,7 +11485,7 @@
         <v>0.16240307139518401</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -10286,7 +11505,7 @@
         <v>0.281524585592897</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
@@ -10309,7 +11528,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -10329,7 +11548,7 @@
         <v>0.20011006099130699</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
@@ -10352,7 +11571,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -10375,7 +11594,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -10395,7 +11614,7 @@
         <v>0.340312355028425</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -10415,7 +11634,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -10438,7 +11657,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7</v>
       </c>
@@ -10458,7 +11677,7 @@
         <v>0.518933980122111</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7.5</v>
       </c>
@@ -10481,7 +11700,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>9</v>
       </c>
@@ -10504,7 +11723,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10</v>
       </c>
@@ -10524,7 +11743,7 @@
         <v>0.27597066153239402</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>9</v>
       </c>
@@ -10544,7 +11763,7 @@
         <v>0.298153481673464</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9</v>
       </c>
@@ -10567,7 +11786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6</v>
       </c>
@@ -10587,7 +11806,7 @@
         <v>0.37606708307599901</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>9</v>
       </c>
@@ -10610,7 +11829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>13</v>
       </c>
@@ -10630,7 +11849,7 @@
         <v>0.19175709778960801</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>12</v>
       </c>
@@ -10653,7 +11872,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>9</v>
       </c>
@@ -10676,7 +11895,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10.5</v>
       </c>
@@ -10696,7 +11915,7 @@
         <v>0.26107667697681602</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>14</v>
       </c>
@@ -10716,7 +11935,7 @@
         <v>0.16736573827184401</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>11</v>
       </c>
@@ -10736,7 +11955,7 @@
         <v>0.13404224972590401</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -10756,7 +11975,7 @@
         <v>0.44766563783945001</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
@@ -10776,7 +11995,7 @@
         <v>0.39318225532127599</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6</v>
       </c>
@@ -10796,7 +12015,7 @@
         <v>0.42270068671093503</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -10816,7 +12035,7 @@
         <v>0.24108031054889401</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>6</v>
       </c>
@@ -10836,7 +12055,7 @@
         <v>0.47071044325953998</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9</v>
       </c>
@@ -10856,7 +12075,7 @@
         <v>0.42706188985382199</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>11.5</v>
       </c>
@@ -10876,7 +12095,7 @@
         <v>0.32065280245662697</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10</v>
       </c>
@@ -10896,7 +12115,7 @@
         <v>0.41810896696755501</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>9</v>
       </c>
@@ -10916,7 +12135,7 @@
         <v>0.444699628338388</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9</v>
       </c>
@@ -10936,7 +12155,7 @@
         <v>0.40816409722359198</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>9</v>
       </c>
@@ -10956,7 +12175,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10</v>
       </c>
@@ -10976,7 +12195,7 @@
         <v>0.40076472704367999</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
@@ -10996,7 +12215,7 @@
         <v>0.40816409722359198</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6</v>
       </c>
@@ -11016,7 +12235,7 @@
         <v>0.439583726173713</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>18</v>
       </c>
@@ -11036,7 +12255,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>16</v>
       </c>
@@ -11056,7 +12275,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>13</v>
       </c>
@@ -11076,7 +12295,7 @@
         <v>6.4410811496314502E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10</v>
       </c>
@@ -11096,7 +12315,7 @@
         <v>0.195205373546044</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>11</v>
       </c>
@@ -11116,7 +12335,7 @@
         <v>0.12949522949581599</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>12</v>
       </c>
@@ -11136,7 +12355,7 @@
         <v>4.1838577702003499E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>14</v>
       </c>
@@ -11156,7 +12375,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>15</v>
       </c>
@@ -11176,7 +12395,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>12.5</v>
       </c>
@@ -11196,7 +12415,7 @@
         <v>0.15018787521730301</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>13</v>
       </c>
@@ -11216,7 +12435,7 @@
         <v>4.2855161551948899E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>13</v>
       </c>
@@ -11236,7 +12455,7 @@
         <v>1.1292822554258499E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>13</v>
       </c>
@@ -11256,7 +12475,7 @@
         <v>6.7585252677143199E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>13</v>
       </c>
@@ -11276,7 +12495,7 @@
         <v>3.18236300832631E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>12</v>
       </c>
@@ -11296,7 +12515,7 @@
         <v>3.4849309600449301E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10</v>
       </c>
@@ -11316,7 +12535,7 @@
         <v>2.3668769483759101E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>16.5</v>
       </c>
@@ -11336,7 +12555,7 @@
         <v>5.7330922458539999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>12</v>
       </c>
@@ -11356,7 +12575,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>15</v>
       </c>
@@ -11376,7 +12595,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>13</v>
       </c>
@@ -11396,7 +12615,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>15</v>
       </c>
@@ -11416,7 +12635,7 @@
         <v>2.7520403741085001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>12</v>
       </c>
@@ -11436,7 +12655,7 @@
         <v>8.0615633272796805E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>9</v>
       </c>
@@ -11456,7 +12675,7 @@
         <v>0.234594946269537</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4</v>
       </c>
@@ -11476,7 +12695,7 @@
         <v>0.163688590201053</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>14.5</v>
       </c>
@@ -11496,7 +12715,7 @@
         <v>5.0165438409784803E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>10</v>
       </c>
@@ -11516,7 +12735,7 @@
         <v>0.31834587326463898</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>11</v>
       </c>
@@ -11536,7 +12755,7 @@
         <v>0.29449187648195302</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>15.5</v>
       </c>
@@ -11556,7 +12775,7 @@
         <v>1.4522561815373199E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>13</v>
       </c>
@@ -11576,7 +12795,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>15</v>
       </c>
@@ -11596,7 +12815,7 @@
         <v>0.110894511024487</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>13</v>
       </c>
@@ -11616,7 +12835,7 @@
         <v>0.17389494200141301</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>12</v>
       </c>
@@ -11636,7 +12855,7 @@
         <v>0.16803568224284901</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>10</v>
       </c>
@@ -11656,7 +12875,7 @@
         <v>0.229748132263767</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>14</v>
       </c>
@@ -11676,7 +12895,7 @@
         <v>5.2972767707452698E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>8.5</v>
       </c>
@@ -11696,7 +12915,7 @@
         <v>0.219951967943741</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>9</v>
       </c>
@@ -11716,7 +12935,7 @@
         <v>0.36216859916796601</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>10</v>
       </c>
@@ -11736,7 +12955,7 @@
         <v>0.29990799959499098</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>14</v>
       </c>
@@ -11756,7 +12975,7 @@
         <v>6.5803256263970406E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>15</v>
       </c>
@@ -11776,7 +12995,7 @@
         <v>5.12541158711598E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>14.5</v>
       </c>
@@ -11796,7 +13015,7 @@
         <v>4.8262070700855801E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>10</v>
       </c>
@@ -11816,7 +13035,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>12</v>
       </c>
@@ -11836,7 +13055,7 @@
         <v>3.5915534134333502E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>13</v>
       </c>
@@ -11856,7 +13075,7 @@
         <v>0.112617399291341</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>14</v>
       </c>
@@ -11876,7 +13095,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>10</v>
       </c>
@@ -11896,7 +13115,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>13</v>
       </c>
@@ -11916,7 +13135,7 @@
         <v>0.10721658973499899</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>16</v>
       </c>
@@ -11955,9 +13174,9 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11977,7 +13196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11.5</v>
       </c>
@@ -11997,7 +13216,7 @@
         <v>0.79770437998425703</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>17.5</v>
       </c>
@@ -12017,7 +13236,7 @@
         <v>0.17423253864521601</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13.5</v>
       </c>
@@ -12040,7 +13259,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15</v>
       </c>
@@ -12060,7 +13279,7 @@
         <v>0.108587477319407</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>17</v>
       </c>
@@ -12080,7 +13299,7 @@
         <v>4.4484471612456403E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16</v>
       </c>
@@ -12103,7 +13322,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>13.5</v>
       </c>
@@ -12123,7 +13342,7 @@
         <v>1.98579628690342E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>17</v>
       </c>
@@ -12146,7 +13365,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>16</v>
       </c>
@@ -12169,7 +13388,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>16.5</v>
       </c>
@@ -12189,7 +13408,7 @@
         <v>1.1603707204124699E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>23</v>
       </c>
@@ -12209,7 +13428,7 @@
         <v>0.74585339843514797</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -12232,7 +13451,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -12252,7 +13471,7 @@
         <v>0.68093102852659704</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -12275,7 +13494,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -12298,7 +13517,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
@@ -12318,7 +13537,7 @@
         <v>0.60262031930095505</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -12338,7 +13557,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -12361,7 +13580,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -12381,7 +13600,7 @@
         <v>0.13270270410916299</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13</v>
       </c>
@@ -12404,7 +13623,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
@@ -12427,7 +13646,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7</v>
       </c>
@@ -12447,7 +13666,7 @@
         <v>0.99327680929532702</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -12467,7 +13686,7 @@
         <v>0.888452675485499</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>12</v>
       </c>
@@ -12490,7 +13709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>15.5</v>
       </c>
@@ -12510,7 +13729,7 @@
         <v>0.199377454751068</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>17.5</v>
       </c>
@@ -12533,7 +13752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>17</v>
       </c>
@@ -12553,7 +13772,7 @@
         <v>3.6176339766776602E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>14</v>
       </c>
@@ -12576,7 +13795,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>11</v>
       </c>
@@ -12599,7 +13818,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>15</v>
       </c>
@@ -12619,7 +13838,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>16</v>
       </c>
@@ -12639,7 +13858,7 @@
         <v>8.4686144770800401E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>13</v>
       </c>
@@ -12659,7 +13878,7 @@
         <v>0.15516559898566601</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>14</v>
       </c>
@@ -12679,7 +13898,7 @@
         <v>0.101716726093628</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>14.5</v>
       </c>
@@ -12699,7 +13918,7 @@
         <v>4.4907428425561897E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>14</v>
       </c>
@@ -12719,7 +13938,7 @@
         <v>0.159892714043223</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>13.5</v>
       </c>
@@ -12739,7 +13958,7 @@
         <v>0.14665853366796699</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>16</v>
       </c>
@@ -12759,7 +13978,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>16</v>
       </c>
@@ -12779,7 +13998,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>13</v>
       </c>
@@ -12799,7 +14018,7 @@
         <v>0.18629661769563099</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>19</v>
       </c>
@@ -12819,7 +14038,7 @@
         <v>0.103421850202373</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>15.5</v>
       </c>
@@ -12839,7 +14058,7 @@
         <v>8.9127665869218303E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>14</v>
       </c>
@@ -12859,7 +14078,7 @@
         <v>0.122459635623583</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>17</v>
       </c>
@@ -12879,7 +14098,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>14</v>
       </c>
@@ -12899,7 +14118,7 @@
         <v>0.15789368518647001</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>15</v>
       </c>
@@ -12919,7 +14138,7 @@
         <v>0.13393289542998099</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>12</v>
       </c>
@@ -12939,7 +14158,7 @@
         <v>0.21872346784302199</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>15</v>
       </c>
@@ -12959,7 +14178,7 @@
         <v>8.8243791936078605E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>11</v>
       </c>
@@ -12979,7 +14198,7 @@
         <v>0.33567757452649499</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>16</v>
       </c>
@@ -12999,7 +14218,7 @@
         <v>6.5823862868774896E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>17</v>
       </c>
@@ -13019,7 +14238,7 @@
         <v>0.13697300018247299</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>18</v>
       </c>
@@ -13039,7 +14258,7 @@
         <v>0.16711701790504399</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>18</v>
       </c>
@@ -13059,7 +14278,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>24</v>
       </c>
@@ -13079,7 +14298,7 @@
         <v>0.41777344337318301</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>22.5</v>
       </c>
@@ -13099,7 +14318,7 @@
         <v>4.85991697379227E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>19</v>
       </c>
@@ -13119,7 +14338,7 @@
         <v>0.15557521249758099</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>12</v>
       </c>
@@ -13139,7 +14358,7 @@
         <v>0.21872346784302199</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>15</v>
       </c>
@@ -13159,7 +14378,7 @@
         <v>9.8732238379681106E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>15</v>
       </c>
@@ -13179,7 +14398,7 @@
         <v>0.14607354929366201</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>16</v>
       </c>
@@ -13199,7 +14418,7 @@
         <v>0.132719883482324</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>22</v>
       </c>
@@ -13219,7 +14438,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>17</v>
       </c>
@@ -13239,7 +14458,7 @@
         <v>5.8546718441274598E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>17</v>
       </c>
@@ -13259,7 +14478,7 @@
         <v>4.5550839389935302E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>19</v>
       </c>
@@ -13279,7 +14498,7 @@
         <v>0.28577516664656799</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>21</v>
       </c>
@@ -13299,7 +14518,7 @@
         <v>0.23218238516032699</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>20</v>
       </c>
@@ -13319,7 +14538,7 @@
         <v>0.160441856225881</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>18</v>
       </c>
@@ -13339,7 +14558,7 @@
         <v>4.01786204337478E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>17.5</v>
       </c>
@@ -13359,7 +14578,7 @@
         <v>6.2311369832294301E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>18.5</v>
       </c>
@@ -13379,7 +14598,7 @@
         <v>1.4095318569837499E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>16</v>
       </c>
@@ -13399,7 +14618,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>14</v>
       </c>
@@ -13419,7 +14638,7 @@
         <v>5.2071870169784701E-5</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>17</v>
       </c>
@@ -13439,7 +14658,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>17</v>
       </c>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19920" windowHeight="8400" tabRatio="500"/>
+    <workbookView windowWidth="19920" windowHeight="8400" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BN1_DS1" sheetId="1" r:id="rId1"/>
@@ -1691,7 +1691,7 @@
   <sheetPr/>
   <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -4411,7 +4411,7 @@
   <sheetPr/>
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
       <selection activeCell="J22" sqref="J22:N26"/>
     </sheetView>
   </sheetViews>
@@ -6647,7 +6647,7 @@
   <sheetPr/>
   <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView topLeftCell="E25" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K32" sqref="K32:O36"/>
     </sheetView>
   </sheetViews>
